--- a/fruit.xlsx
+++ b/fruit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>search</t>
   </si>
@@ -46,6 +46,9 @@
     <t>4 Ounce (Pack of 10)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/91pN6z5C7yL._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>citrusfruit</t>
   </si>
   <si>
@@ -58,13 +61,19 @@
     <t>14 Piece Assortment</t>
   </si>
   <si>
-    <t>pip fruit</t>
-  </si>
-  <si>
-    <t>Ma.Lina.Ann Pop Bubbles Simple Multi-Item Fidget Toy, Silicone Funny Animal Sensory Squeeze Bubbles Toy Stress Relief Anti-Anxiety Autism ADHD Special Fidget Popper Gift for Kids and Adult (Apple)</t>
-  </si>
-  <si>
-    <t>1.79 Fl Oz (Pack of 24)</t>
+    <t>https://m.media-amazon.com/images/I/81bpCwtWG4S._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>canned fruit</t>
+  </si>
+  <si>
+    <t>Dole Canned Tropical Fruit in Light Syrup &amp; Passionfruit Juice, Pineapple &amp; Papaya, 15.25 Oz, 12 Count</t>
+  </si>
+  <si>
+    <t>15.25 Ounce (Pack of 12)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51Lyo7q6zIS.jpg</t>
   </si>
   <si>
     <t>grapes</t>
@@ -76,6 +85,9 @@
     <t>12 Fl Oz (Pack of 24)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/8124tVxzFzL._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>citrus fruit</t>
   </si>
   <si>
@@ -88,6 +100,9 @@
     <t>10 Count (Pack of 8)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/71o6dyISEYL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
     <t>frozen fruits</t>
   </si>
   <si>
@@ -100,6 +115,9 @@
     <t>1.2 Ounce (Pack of 2)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/913So4blpuL._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>curd</t>
   </si>
   <si>
@@ -112,6 +130,9 @@
     <t>11 Ounce (Pack of 1)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/61yVsuF+JHL._SL1200_.jpg</t>
+  </si>
+  <si>
     <t>misc. beverages</t>
   </si>
   <si>
@@ -122,6 +143,57 @@
   </si>
   <si>
     <t>9.6 Fl Oz (Pack of 2)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/818LV4v8x-L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>berries</t>
+  </si>
+  <si>
+    <t>Organic Goji Berries | Large &amp; Chewy | Every Batch Lab-Tested | 16oz Resealable Kraft Bag | 100% Raw From Ningxia | by FGO</t>
+  </si>
+  <si>
+    <t>1 Pound (Pack of 1)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81OKJQ0nkwS._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>nuts/prunes</t>
+  </si>
+  <si>
+    <t>Mariani Mediterranean Dried Apricots -6oz (Pack of 4) –Delicately Sweet with No Sugar Added, Gluten Free, Vegan, Fat Free, Non-GMO, Resealable Bag -Healthy Snack for Kids &amp; Adults</t>
+  </si>
+  <si>
+    <t>4 Ounce (Pack of 4)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71DzfikLBLL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>sweet spreads</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81Kc+mVjBtL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>tidbits</t>
+  </si>
+  <si>
+    <t>Del Monte Canned Gold Pineapple Tidbits In 100% Pineapple Juice, 20 Oz, Pack of 12</t>
+  </si>
+  <si>
+    <t>20 Ounce (Pack of 1)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71QatLGOQSL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>tropical fruit</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81HCfxurL3L._SL1500_.jpg</t>
   </si>
 </sst>
 </file>
@@ -129,11 +201,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -144,6 +216,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -158,6 +238,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -165,9 +291,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,105 +359,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -297,187 +369,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,36 +568,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,16 +591,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,157 +630,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,6 +819,9 @@
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1067,13 +1142,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="18.4464285714286" customWidth="1"/>
     <col min="3" max="3" width="77.9732142857143" customWidth="1"/>
@@ -1099,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1118,53 +1193,62 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>18.49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2">
-        <v>9.99</v>
+        <v>29.9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1173,93 +1257,238 @@
         <v>9.99</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2">
         <v>44.5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2">
         <v>31.95</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2">
         <v>6.93</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2">
         <v>94.38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2">
+        <v>23.99</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9.24</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>37.71</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H11" r:id="rId1" display="https://m.media-amazon.com/images/I/71DzfikLBLL._SL1500_.jpg"/>
+    <hyperlink ref="H12" r:id="rId2" display="https://m.media-amazon.com/images/I/81Kc+mVjBtL._SL1500_.jpg"/>
+    <hyperlink ref="H2" r:id="rId3" display="https://m.media-amazon.com/images/I/91pN6z5C7yL._SL1500_.jpg"/>
+    <hyperlink ref="H3" r:id="rId4" display="https://m.media-amazon.com/images/I/81bpCwtWG4S._SL1500_.jpg"/>
+    <hyperlink ref="H5" r:id="rId5" display="https://m.media-amazon.com/images/I/8124tVxzFzL._SL1500_.jpg"/>
+    <hyperlink ref="H6" r:id="rId6" display="https://m.media-amazon.com/images/I/71o6dyISEYL._AC_SL1500_.jpg"/>
+    <hyperlink ref="H7" r:id="rId7" display="https://m.media-amazon.com/images/I/913So4blpuL._SL1500_.jpg"/>
+    <hyperlink ref="H8" r:id="rId8" display="https://m.media-amazon.com/images/I/61yVsuF+JHL._SL1200_.jpg"/>
+    <hyperlink ref="H9" r:id="rId9" display="https://m.media-amazon.com/images/I/818LV4v8x-L._SL1500_.jpg"/>
+    <hyperlink ref="H10" r:id="rId10" display="https://m.media-amazon.com/images/I/81OKJQ0nkwS._SL1500_.jpg"/>
+    <hyperlink ref="H4" r:id="rId11" display="https://m.media-amazon.com/images/I/51Lyo7q6zIS.jpg"/>
+    <hyperlink ref="H13" r:id="rId12" display="https://m.media-amazon.com/images/I/71QatLGOQSL._SL1500_.jpg"/>
+    <hyperlink ref="H14" r:id="rId13" display="https://m.media-amazon.com/images/I/81HCfxurL3L._SL1500_.jpg"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
